--- a/data/pca/factorExposure/factorExposure_2010-02-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-05.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.006336593512331938</v>
+        <v>0.0171753172132556</v>
       </c>
       <c r="C2">
-        <v>-0.01676859194277083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.0008975719878637765</v>
+      </c>
+      <c r="D2">
+        <v>-0.00708701464311577</v>
+      </c>
+      <c r="E2">
+        <v>-0.0002443223246595321</v>
+      </c>
+      <c r="F2">
+        <v>-0.008679904007437393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03392185978480571</v>
+        <v>0.09395178428273829</v>
       </c>
       <c r="C4">
-        <v>-0.1218884752251442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01568194342428079</v>
+      </c>
+      <c r="D4">
+        <v>-0.08310089102060599</v>
+      </c>
+      <c r="E4">
+        <v>-0.02814851864186954</v>
+      </c>
+      <c r="F4">
+        <v>0.03014330154375477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04447596677516923</v>
+        <v>0.1564338622581584</v>
       </c>
       <c r="C6">
-        <v>-0.1060691051679864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.02500645786195654</v>
+      </c>
+      <c r="D6">
+        <v>0.02294651187848011</v>
+      </c>
+      <c r="E6">
+        <v>-0.009826007616639742</v>
+      </c>
+      <c r="F6">
+        <v>0.04694828654103823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01022333187179662</v>
+        <v>0.06025090344497908</v>
       </c>
       <c r="C7">
-        <v>-0.074065150529394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0008104507730449617</v>
+      </c>
+      <c r="D7">
+        <v>-0.05114275952129456</v>
+      </c>
+      <c r="E7">
+        <v>-0.0113391188013942</v>
+      </c>
+      <c r="F7">
+        <v>0.04196234770472638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.00671162893702505</v>
+        <v>0.05863122552142638</v>
       </c>
       <c r="C8">
-        <v>-0.0542628006212703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01349598080315561</v>
+      </c>
+      <c r="D8">
+        <v>-0.03145041767229783</v>
+      </c>
+      <c r="E8">
+        <v>-0.01612176231544429</v>
+      </c>
+      <c r="F8">
+        <v>-0.02821439140444579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02947319754213672</v>
+        <v>0.07187894404293275</v>
       </c>
       <c r="C9">
-        <v>-0.09548679975646819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01154350468089548</v>
+      </c>
+      <c r="D9">
+        <v>-0.08437914303153035</v>
+      </c>
+      <c r="E9">
+        <v>-0.02216992153889377</v>
+      </c>
+      <c r="F9">
+        <v>0.04574327523782817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.005405810493111394</v>
+        <v>0.094714739672937</v>
       </c>
       <c r="C10">
-        <v>-0.04623948487852506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.01865839344174145</v>
+      </c>
+      <c r="D10">
+        <v>0.1701558890067988</v>
+      </c>
+      <c r="E10">
+        <v>0.03830863119155963</v>
+      </c>
+      <c r="F10">
+        <v>-0.05717651075633105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03225755411120441</v>
+        <v>0.08780182042481909</v>
       </c>
       <c r="C11">
-        <v>-0.1047804526704988</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01114560557584757</v>
+      </c>
+      <c r="D11">
+        <v>-0.1169827451548146</v>
+      </c>
+      <c r="E11">
+        <v>-0.04687026067143357</v>
+      </c>
+      <c r="F11">
+        <v>0.01898197677102786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02929360535886582</v>
+        <v>0.09246132587736183</v>
       </c>
       <c r="C12">
-        <v>-0.1121235328929602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008570096910608201</v>
+      </c>
+      <c r="D12">
+        <v>-0.1289543933080873</v>
+      </c>
+      <c r="E12">
+        <v>-0.0470253870234047</v>
+      </c>
+      <c r="F12">
+        <v>0.02188972138261483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.008829717959436743</v>
+        <v>0.04322021848075831</v>
       </c>
       <c r="C13">
-        <v>-0.03977774745491257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.00396983862696659</v>
+      </c>
+      <c r="D13">
+        <v>-0.04792491773452984</v>
+      </c>
+      <c r="E13">
+        <v>0.01219189423428296</v>
+      </c>
+      <c r="F13">
+        <v>0.002889567136903852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01513756302611271</v>
+        <v>0.02251166528488913</v>
       </c>
       <c r="C14">
-        <v>-0.02473721159774594</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01400869885789328</v>
+      </c>
+      <c r="D14">
+        <v>-0.03313991878050392</v>
+      </c>
+      <c r="E14">
+        <v>-0.01626473539873146</v>
+      </c>
+      <c r="F14">
+        <v>0.01387542235447323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01276086776364902</v>
+        <v>0.03121890421052979</v>
       </c>
       <c r="C15">
-        <v>-0.02507094204033712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005165756095378985</v>
+      </c>
+      <c r="D15">
+        <v>-0.04493802631080622</v>
+      </c>
+      <c r="E15">
+        <v>-0.007046736907705894</v>
+      </c>
+      <c r="F15">
+        <v>0.02169955240732439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.02029300693649891</v>
+        <v>0.07334421701869449</v>
       </c>
       <c r="C16">
-        <v>-0.1123382475532012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.002113951700716219</v>
+      </c>
+      <c r="D16">
+        <v>-0.1261878864326683</v>
+      </c>
+      <c r="E16">
+        <v>-0.06240637627221775</v>
+      </c>
+      <c r="F16">
+        <v>0.02200289418840883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02649257798982977</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.003559963355723599</v>
+      </c>
+      <c r="D18">
+        <v>-0.02116064847996508</v>
+      </c>
+      <c r="E18">
+        <v>0.004881325553116536</v>
+      </c>
+      <c r="F18">
+        <v>-0.009860520266332041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01510690915791765</v>
+        <v>0.06003682391026669</v>
       </c>
       <c r="C20">
-        <v>-0.06401275369767027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0004971234448265792</v>
+      </c>
+      <c r="D20">
+        <v>-0.07693546844840371</v>
+      </c>
+      <c r="E20">
+        <v>-0.05554255169704772</v>
+      </c>
+      <c r="F20">
+        <v>0.02066409560532519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01108743527523848</v>
+        <v>0.03917837516009016</v>
       </c>
       <c r="C21">
-        <v>-0.02206856013355173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.006448731233311311</v>
+      </c>
+      <c r="D21">
+        <v>-0.03646005687586482</v>
+      </c>
+      <c r="E21">
+        <v>0.006859205761226815</v>
+      </c>
+      <c r="F21">
+        <v>-0.02702223082006377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.002627496659243737</v>
+        <v>0.04500584815273413</v>
       </c>
       <c r="C22">
-        <v>-0.03820837749685232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.000636242021681074</v>
+      </c>
+      <c r="D22">
+        <v>-0.003345197359346529</v>
+      </c>
+      <c r="E22">
+        <v>-0.02895761554658207</v>
+      </c>
+      <c r="F22">
+        <v>-0.03072111171903771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.002642998659504753</v>
+        <v>0.04501286751144883</v>
       </c>
       <c r="C23">
-        <v>-0.03823892602877916</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0006517065537339412</v>
+      </c>
+      <c r="D23">
+        <v>-0.003481050519510612</v>
+      </c>
+      <c r="E23">
+        <v>-0.029272915341453</v>
+      </c>
+      <c r="F23">
+        <v>-0.03025008704256206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.021731528091724</v>
+        <v>0.07969957604359754</v>
       </c>
       <c r="C24">
-        <v>-0.1095487508744585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.002761438843334242</v>
+      </c>
+      <c r="D24">
+        <v>-0.1203069462015187</v>
+      </c>
+      <c r="E24">
+        <v>-0.05050819521315693</v>
+      </c>
+      <c r="F24">
+        <v>0.02246389242392095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02705129117987659</v>
+        <v>0.08514851990774705</v>
       </c>
       <c r="C25">
-        <v>-0.1160969427857242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.005019440143334332</v>
+      </c>
+      <c r="D25">
+        <v>-0.1091208014852935</v>
+      </c>
+      <c r="E25">
+        <v>-0.0330308603435946</v>
+      </c>
+      <c r="F25">
+        <v>0.02398787055786236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02408597969835146</v>
+        <v>0.05601486118213263</v>
       </c>
       <c r="C26">
-        <v>-0.04733311873502304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01443505537347983</v>
+      </c>
+      <c r="D26">
+        <v>-0.04169524468792374</v>
+      </c>
+      <c r="E26">
+        <v>-0.02694687021089247</v>
+      </c>
+      <c r="F26">
+        <v>-0.01245618819636526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.005193812916661684</v>
+        <v>0.1419627663400501</v>
       </c>
       <c r="C28">
-        <v>-0.03356833345553481</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.01799782066960406</v>
+      </c>
+      <c r="D28">
+        <v>0.2644412776718996</v>
+      </c>
+      <c r="E28">
+        <v>0.07111813481523283</v>
+      </c>
+      <c r="F28">
+        <v>0.007517340723106173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01565152983534522</v>
+        <v>0.02654300797926114</v>
       </c>
       <c r="C29">
-        <v>-0.02764946896981237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.008190646622627456</v>
+      </c>
+      <c r="D29">
+        <v>-0.0329974983915813</v>
+      </c>
+      <c r="E29">
+        <v>-0.01071247434998548</v>
+      </c>
+      <c r="F29">
+        <v>-0.01117662019213279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.022697859646303</v>
+        <v>0.06172063934010552</v>
       </c>
       <c r="C30">
-        <v>-0.1241567716911087</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.004384197914027773</v>
+      </c>
+      <c r="D30">
+        <v>-0.08635897866971377</v>
+      </c>
+      <c r="E30">
+        <v>-0.02037715277691272</v>
+      </c>
+      <c r="F30">
+        <v>0.08053748772760794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02543121625885566</v>
+        <v>0.0493021315115214</v>
       </c>
       <c r="C31">
-        <v>-0.03314188592704845</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01511829367049097</v>
+      </c>
+      <c r="D31">
+        <v>-0.02534602331467053</v>
+      </c>
+      <c r="E31">
+        <v>-0.02720712591396259</v>
+      </c>
+      <c r="F31">
+        <v>-0.003462132954042294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.01128236533808048</v>
+        <v>0.04938676368654104</v>
       </c>
       <c r="C32">
-        <v>-0.06156962516043987</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.00121785919050971</v>
+      </c>
+      <c r="D32">
+        <v>-0.03610219933670222</v>
+      </c>
+      <c r="E32">
+        <v>-0.03047502581957174</v>
+      </c>
+      <c r="F32">
+        <v>0.0004528667590463963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02783416100188867</v>
+        <v>0.0894350795997627</v>
       </c>
       <c r="C33">
-        <v>-0.112331073236526</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008297569503569165</v>
+      </c>
+      <c r="D33">
+        <v>-0.09819409649795798</v>
+      </c>
+      <c r="E33">
+        <v>-0.04526194064726187</v>
+      </c>
+      <c r="F33">
+        <v>0.03256341564299848</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.03110772358953949</v>
+        <v>0.06815667914287701</v>
       </c>
       <c r="C34">
-        <v>-0.09460185022800018</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01153027300593435</v>
+      </c>
+      <c r="D34">
+        <v>-0.1058254400564808</v>
+      </c>
+      <c r="E34">
+        <v>-0.03484300318724718</v>
+      </c>
+      <c r="F34">
+        <v>0.03129187250770284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003748645319140984</v>
+        <v>0.02435500347461411</v>
       </c>
       <c r="C35">
-        <v>-0.01405012920154414</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002375968568922223</v>
+      </c>
+      <c r="D35">
+        <v>-0.01257785571652702</v>
+      </c>
+      <c r="E35">
+        <v>-0.01147937134412799</v>
+      </c>
+      <c r="F35">
+        <v>0.0007521336059176977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01177236978747093</v>
+        <v>0.02482472809128059</v>
       </c>
       <c r="C36">
-        <v>-0.0282283685385737</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007336782051068827</v>
+      </c>
+      <c r="D36">
+        <v>-0.03997322229157788</v>
+      </c>
+      <c r="E36">
+        <v>-0.01589237547620669</v>
+      </c>
+      <c r="F36">
+        <v>0.01378901855992566</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0008965124835545156</v>
+        <v>0.001610620130100448</v>
       </c>
       <c r="C38">
-        <v>-0.005760016503647014</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0002548983187435898</v>
+      </c>
+      <c r="D38">
+        <v>-0.0004579262614698684</v>
+      </c>
+      <c r="E38">
+        <v>-0.001030349528856927</v>
+      </c>
+      <c r="F38">
+        <v>-0.000633511848995252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04674846543877863</v>
+        <v>0.1072201946193814</v>
       </c>
       <c r="C39">
-        <v>-0.168644796491744</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01661876548144979</v>
+      </c>
+      <c r="D39">
+        <v>-0.1528367504753795</v>
+      </c>
+      <c r="E39">
+        <v>-0.05878934360732506</v>
+      </c>
+      <c r="F39">
+        <v>0.02728360064318357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.009704966588927826</v>
+        <v>0.03839641852920327</v>
       </c>
       <c r="C40">
-        <v>-0.0102967576258924</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.007229823525669831</v>
+      </c>
+      <c r="D40">
+        <v>-0.03203439780506702</v>
+      </c>
+      <c r="E40">
+        <v>-0.001766994609409566</v>
+      </c>
+      <c r="F40">
+        <v>-0.01713923683992945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01468538473421395</v>
+        <v>0.02674293899638437</v>
       </c>
       <c r="C41">
-        <v>-0.02088152463071939</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006529383266239355</v>
+      </c>
+      <c r="D41">
+        <v>-0.01101902841636008</v>
+      </c>
+      <c r="E41">
+        <v>-0.01211939664043644</v>
+      </c>
+      <c r="F41">
+        <v>-0.006546633581320669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01334974713975195</v>
+        <v>0.04042820590673903</v>
       </c>
       <c r="C43">
-        <v>-0.02513513960831919</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.006630674780427163</v>
+      </c>
+      <c r="D43">
+        <v>-0.02042973606475569</v>
+      </c>
+      <c r="E43">
+        <v>-0.02386798475939547</v>
+      </c>
+      <c r="F43">
+        <v>-0.01184369130889517</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03701055313301119</v>
+        <v>0.07671440771778137</v>
       </c>
       <c r="C44">
-        <v>-0.1320215235023456</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.02097663432113864</v>
+      </c>
+      <c r="D44">
+        <v>-0.09795983767780247</v>
+      </c>
+      <c r="E44">
+        <v>-0.06711353888264016</v>
+      </c>
+      <c r="F44">
+        <v>0.150736637719626</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.004736466670362871</v>
+        <v>0.02380091053126925</v>
       </c>
       <c r="C46">
-        <v>-0.01198712212154501</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.003818429994947629</v>
+      </c>
+      <c r="D46">
+        <v>-0.01258253338106191</v>
+      </c>
+      <c r="E46">
+        <v>-0.02233371336895578</v>
+      </c>
+      <c r="F46">
+        <v>-0.003637026988888767</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01611150787631491</v>
+        <v>0.05078178756559411</v>
       </c>
       <c r="C47">
-        <v>-0.04080480084887025</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.00340283179212971</v>
+      </c>
+      <c r="D47">
+        <v>-0.01315050544248741</v>
+      </c>
+      <c r="E47">
+        <v>-0.02295028019658587</v>
+      </c>
+      <c r="F47">
+        <v>-0.03375295888837544</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01491471878174612</v>
+        <v>0.04811104141494272</v>
       </c>
       <c r="C48">
-        <v>-0.04606822746609138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.00257389143506906</v>
+      </c>
+      <c r="D48">
+        <v>-0.05104973489836714</v>
+      </c>
+      <c r="E48">
+        <v>0.005570296738130486</v>
+      </c>
+      <c r="F48">
+        <v>0.007600189246554281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.04304836022259181</v>
+        <v>0.2021539113741884</v>
       </c>
       <c r="C49">
-        <v>-0.206918217195885</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01820436239724477</v>
+      </c>
+      <c r="D49">
+        <v>0.01191180220920905</v>
+      </c>
+      <c r="E49">
+        <v>-0.03159280350213286</v>
+      </c>
+      <c r="F49">
+        <v>0.0353864562333403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.02102486803983111</v>
+        <v>0.04931136773763282</v>
       </c>
       <c r="C50">
-        <v>-0.0407431947580606</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01115406301216529</v>
+      </c>
+      <c r="D50">
+        <v>-0.0248783550391658</v>
+      </c>
+      <c r="E50">
+        <v>-0.02944002815923107</v>
+      </c>
+      <c r="F50">
+        <v>0.007527298642522991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.001193545605353636</v>
+        <v>0.00235239740884305</v>
       </c>
       <c r="C51">
-        <v>-0.007547315577845608</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.0006012422431045376</v>
+      </c>
+      <c r="D51">
+        <v>0.00255926353164324</v>
+      </c>
+      <c r="E51">
+        <v>0.0002527620211987282</v>
+      </c>
+      <c r="F51">
+        <v>0.003467664735980872</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03570754251562228</v>
+        <v>0.1452701415173566</v>
       </c>
       <c r="C52">
-        <v>-0.1397617646885667</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.01440465351459971</v>
+      </c>
+      <c r="D52">
+        <v>-0.04795313646587877</v>
+      </c>
+      <c r="E52">
+        <v>-0.02155794247686486</v>
+      </c>
+      <c r="F52">
+        <v>0.04404072805717759</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03544785369730558</v>
+        <v>0.1736390874097503</v>
       </c>
       <c r="C53">
-        <v>-0.1556576903230026</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01765459822134167</v>
+      </c>
+      <c r="D53">
+        <v>-0.006380089228319669</v>
+      </c>
+      <c r="E53">
+        <v>-0.03148462916204781</v>
+      </c>
+      <c r="F53">
+        <v>0.07520687649487627</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01440508655799292</v>
+        <v>0.02194534385635006</v>
       </c>
       <c r="C54">
-        <v>-0.05011515162700989</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.012378089874979</v>
+      </c>
+      <c r="D54">
+        <v>-0.03314036241234927</v>
+      </c>
+      <c r="E54">
+        <v>-0.01560834111512683</v>
+      </c>
+      <c r="F54">
+        <v>-0.002812665618145123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02685523361454384</v>
+        <v>0.1141186268619555</v>
       </c>
       <c r="C55">
-        <v>-0.08716434895054812</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.0158407100007324</v>
+      </c>
+      <c r="D55">
+        <v>-0.01034880582363033</v>
+      </c>
+      <c r="E55">
+        <v>-0.0283982481326887</v>
+      </c>
+      <c r="F55">
+        <v>0.0486717510207374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03972107092236696</v>
+        <v>0.1776874366790673</v>
       </c>
       <c r="C56">
-        <v>-0.1557199006569132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.01501729539502438</v>
+      </c>
+      <c r="D56">
+        <v>-0.003915646956032004</v>
+      </c>
+      <c r="E56">
+        <v>-0.03854130871787346</v>
+      </c>
+      <c r="F56">
+        <v>0.05588912227212718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01480470538373307</v>
+        <v>0.04679303830965376</v>
       </c>
       <c r="C58">
-        <v>-0.04431440167474363</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001104902172883582</v>
+      </c>
+      <c r="D58">
+        <v>-0.06724036534377609</v>
+      </c>
+      <c r="E58">
+        <v>-0.02692508717682101</v>
+      </c>
+      <c r="F58">
+        <v>-0.03959521809021129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01263891023735755</v>
+        <v>0.1709767857038257</v>
       </c>
       <c r="C59">
-        <v>-0.09572249140657924</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.01843062640696082</v>
+      </c>
+      <c r="D59">
+        <v>0.2212132329780981</v>
+      </c>
+      <c r="E59">
+        <v>0.0477014808298083</v>
+      </c>
+      <c r="F59">
+        <v>-0.0310074081675756</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.04209691051091009</v>
+        <v>0.2345412193381227</v>
       </c>
       <c r="C60">
-        <v>-0.2747773023767432</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.003486489965587738</v>
+      </c>
+      <c r="D60">
+        <v>-0.04011773885975545</v>
+      </c>
+      <c r="E60">
+        <v>-0.0120462944824568</v>
+      </c>
+      <c r="F60">
+        <v>-0.002181541398814211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03254349023556971</v>
+        <v>0.08293336388455821</v>
       </c>
       <c r="C61">
-        <v>-0.1284404517247554</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.0124260671012759</v>
+      </c>
+      <c r="D61">
+        <v>-0.1162897575922967</v>
+      </c>
+      <c r="E61">
+        <v>-0.03933656220182202</v>
+      </c>
+      <c r="F61">
+        <v>0.0114879544549782</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.04321441266839237</v>
+        <v>0.1698706520822581</v>
       </c>
       <c r="C62">
-        <v>-0.1661122899332095</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.01868915006551962</v>
+      </c>
+      <c r="D62">
+        <v>-0.00910136542900036</v>
+      </c>
+      <c r="E62">
+        <v>-0.03552125491625642</v>
+      </c>
+      <c r="F62">
+        <v>0.03818238305833052</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01401283948168962</v>
+        <v>0.04327851634427345</v>
       </c>
       <c r="C63">
-        <v>-0.05588920858159054</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002408126026658331</v>
+      </c>
+      <c r="D63">
+        <v>-0.05740860046572022</v>
+      </c>
+      <c r="E63">
+        <v>-0.02038635206443999</v>
+      </c>
+      <c r="F63">
+        <v>0.003156372060329613</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.026391524686348</v>
+        <v>0.1106498144319076</v>
       </c>
       <c r="C64">
-        <v>-0.09889419539916178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01142108326257738</v>
+      </c>
+      <c r="D64">
+        <v>-0.04166881526226886</v>
+      </c>
+      <c r="E64">
+        <v>-0.02093132829267081</v>
+      </c>
+      <c r="F64">
+        <v>0.02579283484555746</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.04715118193874893</v>
+        <v>0.1470781817208126</v>
       </c>
       <c r="C65">
-        <v>-0.106192288590216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03172784937846478</v>
+      </c>
+      <c r="D65">
+        <v>0.04163338807911503</v>
+      </c>
+      <c r="E65">
+        <v>-0.0008844215516877923</v>
+      </c>
+      <c r="F65">
+        <v>0.03818508434353714</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04638439199915396</v>
+        <v>0.1278639721253126</v>
       </c>
       <c r="C66">
-        <v>-0.2006928735124538</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01449644715103641</v>
+      </c>
+      <c r="D66">
+        <v>-0.141824957590425</v>
+      </c>
+      <c r="E66">
+        <v>-0.06710094066431972</v>
+      </c>
+      <c r="F66">
+        <v>0.02978402260574859</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01659732024025497</v>
+        <v>0.063414717132319</v>
       </c>
       <c r="C67">
-        <v>-0.06984083218150969</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.002930829470123245</v>
+      </c>
+      <c r="D67">
+        <v>-0.05550884087647179</v>
+      </c>
+      <c r="E67">
+        <v>-0.01770408446293553</v>
+      </c>
+      <c r="F67">
+        <v>-0.03232997646855398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01628515069752476</v>
+        <v>0.1164177549886951</v>
       </c>
       <c r="C68">
-        <v>-0.03061914708451206</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.02796976178932549</v>
+      </c>
+      <c r="D68">
+        <v>0.2593819771581927</v>
+      </c>
+      <c r="E68">
+        <v>0.08762078046208015</v>
+      </c>
+      <c r="F68">
+        <v>0.005330993312175172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.009875351818357742</v>
+        <v>0.03915269888514641</v>
       </c>
       <c r="C69">
-        <v>-0.03190986856855162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.001009364096423698</v>
+      </c>
+      <c r="D69">
+        <v>-0.008161603161111938</v>
+      </c>
+      <c r="E69">
+        <v>-0.02355894583997112</v>
+      </c>
+      <c r="F69">
+        <v>-0.0009558494533280102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0001270071259052506</v>
+        <v>0.06243254959718254</v>
       </c>
       <c r="C70">
-        <v>-0.035140760676785</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02879869516142253</v>
+      </c>
+      <c r="D70">
+        <v>-0.02947733622433655</v>
+      </c>
+      <c r="E70">
+        <v>0.04239753437495694</v>
+      </c>
+      <c r="F70">
+        <v>-0.1881563938797594</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.02025767329023441</v>
+        <v>0.1357053767021419</v>
       </c>
       <c r="C71">
-        <v>-0.03706321916698504</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.03270012054544033</v>
+      </c>
+      <c r="D71">
+        <v>0.2733888576010802</v>
+      </c>
+      <c r="E71">
+        <v>0.09735649690246237</v>
+      </c>
+      <c r="F71">
+        <v>0.0111850018038951</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.04074924032058167</v>
+        <v>0.1415689459807285</v>
       </c>
       <c r="C72">
-        <v>-0.1177683320735857</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.02529855652345163</v>
+      </c>
+      <c r="D72">
+        <v>-0.0007121456359416392</v>
+      </c>
+      <c r="E72">
+        <v>-0.03983965885221912</v>
+      </c>
+      <c r="F72">
+        <v>0.03478813464874601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.0438219319104759</v>
+        <v>0.201167737461537</v>
       </c>
       <c r="C73">
-        <v>-0.2028314281020031</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01217477539503537</v>
+      </c>
+      <c r="D73">
+        <v>-0.0150133530529276</v>
+      </c>
+      <c r="E73">
+        <v>-0.06466706114317208</v>
+      </c>
+      <c r="F73">
+        <v>0.03961439105117098</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.02583558258934853</v>
+        <v>0.094810924865459</v>
       </c>
       <c r="C74">
-        <v>-0.1136100081600692</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01267337223769904</v>
+      </c>
+      <c r="D74">
+        <v>-0.01850713712261603</v>
+      </c>
+      <c r="E74">
+        <v>-0.04573443823392879</v>
+      </c>
+      <c r="F74">
+        <v>0.05706104203276229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04837541994793169</v>
+        <v>0.1286780506024023</v>
       </c>
       <c r="C75">
-        <v>-0.1328780662392852</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02705362537156716</v>
+      </c>
+      <c r="D75">
+        <v>-0.03167587644714462</v>
+      </c>
+      <c r="E75">
+        <v>-0.0597860854727961</v>
+      </c>
+      <c r="F75">
+        <v>0.01999337041068208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.001004388141160731</v>
+        <v>0.002063067533587822</v>
       </c>
       <c r="C76">
-        <v>-0.007739190141530274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0005407633317368805</v>
+      </c>
+      <c r="D76">
+        <v>0.001165286956644019</v>
+      </c>
+      <c r="E76">
+        <v>-0.0004820657473664337</v>
+      </c>
+      <c r="F76">
+        <v>0.003391991013437524</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0288794554173848</v>
+        <v>0.08011187216289037</v>
       </c>
       <c r="C77">
-        <v>-0.1018475318314731</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.008398310433092559</v>
+      </c>
+      <c r="D77">
+        <v>-0.1185718948768123</v>
+      </c>
+      <c r="E77">
+        <v>-0.04267955370257642</v>
+      </c>
+      <c r="F77">
+        <v>0.02726106892242555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.06493762543182287</v>
+        <v>0.1030653437410552</v>
       </c>
       <c r="C78">
-        <v>-0.1105145572900991</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03974734883419261</v>
+      </c>
+      <c r="D78">
+        <v>-0.1148034519789337</v>
+      </c>
+      <c r="E78">
+        <v>-0.07813494827524368</v>
+      </c>
+      <c r="F78">
+        <v>0.04846022049653571</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.04289240415153255</v>
+        <v>0.1644377238890387</v>
       </c>
       <c r="C79">
-        <v>-0.14260698132512</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.0212024562384393</v>
+      </c>
+      <c r="D79">
+        <v>-0.01801939475878685</v>
+      </c>
+      <c r="E79">
+        <v>-0.04856300343491283</v>
+      </c>
+      <c r="F79">
+        <v>0.01473887971297701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.007134625538204584</v>
+        <v>0.08109514646542455</v>
       </c>
       <c r="C80">
-        <v>-0.09453963691173249</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.000926559110285459</v>
+      </c>
+      <c r="D80">
+        <v>-0.05697567086864234</v>
+      </c>
+      <c r="E80">
+        <v>-0.0364476129987938</v>
+      </c>
+      <c r="F80">
+        <v>-0.0272716988209263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04733104080011451</v>
+        <v>0.1229689104051247</v>
       </c>
       <c r="C81">
-        <v>-0.1534476699384756</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.0310339270982632</v>
+      </c>
+      <c r="D81">
+        <v>-0.01649174182463547</v>
+      </c>
+      <c r="E81">
+        <v>-0.05902008200512478</v>
+      </c>
+      <c r="F81">
+        <v>0.0187738237705828</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.04146550785761814</v>
+        <v>0.1648525716836153</v>
       </c>
       <c r="C82">
-        <v>-0.1703537752621065</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.02336854421508704</v>
+      </c>
+      <c r="D82">
+        <v>-0.006460719211928101</v>
+      </c>
+      <c r="E82">
+        <v>-0.02964758353624652</v>
+      </c>
+      <c r="F82">
+        <v>0.08072362732179601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01800772750261022</v>
+        <v>0.06169132934088502</v>
       </c>
       <c r="C83">
-        <v>-0.07938396501780495</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.003257453391846481</v>
+      </c>
+      <c r="D83">
+        <v>-0.04919221226966378</v>
+      </c>
+      <c r="E83">
+        <v>-0.005579072584609374</v>
+      </c>
+      <c r="F83">
+        <v>-0.03345821888262174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02592120314424572</v>
+        <v>0.05865379485533626</v>
       </c>
       <c r="C84">
-        <v>-0.07155606316510643</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01087892125045102</v>
+      </c>
+      <c r="D84">
+        <v>-0.06539778929130971</v>
+      </c>
+      <c r="E84">
+        <v>-0.006740876122374558</v>
+      </c>
+      <c r="F84">
+        <v>0.006823426405240566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.04247729748795385</v>
+        <v>0.1381801886976205</v>
       </c>
       <c r="C85">
-        <v>-0.1181901577166247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.02690311665507101</v>
+      </c>
+      <c r="D85">
+        <v>-0.01162619406050046</v>
+      </c>
+      <c r="E85">
+        <v>-0.03928785399431611</v>
+      </c>
+      <c r="F85">
+        <v>0.04812649764187603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.02198562381461788</v>
+        <v>0.0963707284431472</v>
       </c>
       <c r="C86">
-        <v>-0.1155188729637801</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.006933610594316846</v>
+      </c>
+      <c r="D86">
+        <v>-0.03821039642723836</v>
+      </c>
+      <c r="E86">
+        <v>-0.2054842842141142</v>
+      </c>
+      <c r="F86">
+        <v>-0.9100792744139703</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.04722271282486082</v>
+        <v>0.09583980482693227</v>
       </c>
       <c r="C87">
-        <v>-0.1091715341088976</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02172609418922499</v>
+      </c>
+      <c r="D87">
+        <v>-0.09206472461249958</v>
+      </c>
+      <c r="E87">
+        <v>0.0528798794940283</v>
+      </c>
+      <c r="F87">
+        <v>0.05303433455406633</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01592798331761851</v>
+        <v>0.06097944937713389</v>
       </c>
       <c r="C88">
-        <v>-0.05691171678677927</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.002406673610942816</v>
+      </c>
+      <c r="D88">
+        <v>-0.05053550681720192</v>
+      </c>
+      <c r="E88">
+        <v>-0.02513351165987148</v>
+      </c>
+      <c r="F88">
+        <v>0.01348921862183081</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0007760301351202814</v>
+        <v>0.134227834084929</v>
       </c>
       <c r="C89">
-        <v>-0.06380583910256096</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.01010015526925782</v>
+      </c>
+      <c r="D89">
+        <v>0.2511548747764362</v>
+      </c>
+      <c r="E89">
+        <v>0.0900338639647212</v>
+      </c>
+      <c r="F89">
+        <v>-0.004285443976495725</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.01965496741597826</v>
+        <v>0.1478671970569909</v>
       </c>
       <c r="C90">
-        <v>-0.04055614595507999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.02846947726250518</v>
+      </c>
+      <c r="D90">
+        <v>0.2657539074256791</v>
+      </c>
+      <c r="E90">
+        <v>0.1115162591255468</v>
+      </c>
+      <c r="F90">
+        <v>-0.002322757919067576</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02499444113512393</v>
+        <v>0.1197425088904835</v>
       </c>
       <c r="C91">
-        <v>-0.09237077063005535</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01760209085882938</v>
+      </c>
+      <c r="D91">
+        <v>0.010933096906141</v>
+      </c>
+      <c r="E91">
+        <v>-0.05671572166208994</v>
+      </c>
+      <c r="F91">
+        <v>-0.0012876406380826</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.001133356399164926</v>
+        <v>0.1479062461292382</v>
       </c>
       <c r="C92">
-        <v>-0.05965629925795458</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.02040011461233169</v>
+      </c>
+      <c r="D92">
+        <v>0.2915141876211525</v>
+      </c>
+      <c r="E92">
+        <v>0.1036548395667067</v>
+      </c>
+      <c r="F92">
+        <v>-0.01392849445005305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01437037088834638</v>
+        <v>0.150962638910342</v>
       </c>
       <c r="C93">
-        <v>-0.045160028809062</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.02453504607238908</v>
+      </c>
+      <c r="D93">
+        <v>0.2658135803560544</v>
+      </c>
+      <c r="E93">
+        <v>0.07854561630065687</v>
+      </c>
+      <c r="F93">
+        <v>0.003747624835270591</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04975488826985659</v>
+        <v>0.1318612107538787</v>
       </c>
       <c r="C94">
-        <v>-0.1574079710562789</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02403341164418954</v>
+      </c>
+      <c r="D94">
+        <v>-0.04426794086861257</v>
+      </c>
+      <c r="E94">
+        <v>-0.05884258370915701</v>
+      </c>
+      <c r="F94">
+        <v>0.03703516983191839</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.04203703275251911</v>
+        <v>0.125552868903419</v>
       </c>
       <c r="C95">
-        <v>-0.1330356007658181</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.004619260988248101</v>
+      </c>
+      <c r="D95">
+        <v>-0.09248503015582529</v>
+      </c>
+      <c r="E95">
+        <v>-0.04868238870250218</v>
+      </c>
+      <c r="F95">
+        <v>-0.01182971369326107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9661143234543594</v>
+        <v>0.1012878062980248</v>
       </c>
       <c r="C96">
-        <v>-0.2400245914758344</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9883794949746709</v>
+      </c>
+      <c r="D96">
+        <v>0.03844448732942489</v>
+      </c>
+      <c r="E96">
+        <v>-0.05615541843418146</v>
+      </c>
+      <c r="F96">
+        <v>0.04314608262406591</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.01895959056535914</v>
+        <v>0.1913106987243098</v>
       </c>
       <c r="C97">
-        <v>-0.1782268943844826</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.009282794009436204</v>
+      </c>
+      <c r="D97">
+        <v>0.01831388267940063</v>
+      </c>
+      <c r="E97">
+        <v>-0.01256274564361664</v>
+      </c>
+      <c r="F97">
+        <v>-0.09489380726565756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.03721323979130588</v>
+        <v>0.2061010575209111</v>
       </c>
       <c r="C98">
-        <v>-0.1979060315883361</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.007354002410867159</v>
+      </c>
+      <c r="D98">
+        <v>-0.006607150810709444</v>
+      </c>
+      <c r="E98">
+        <v>0.08828063059865468</v>
+      </c>
+      <c r="F98">
+        <v>-0.08974116943867175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.005099128219265626</v>
+        <v>0.05574302231459774</v>
       </c>
       <c r="C99">
-        <v>-0.05516480480048208</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.004558423799821409</v>
+      </c>
+      <c r="D99">
+        <v>-0.0380395783993602</v>
+      </c>
+      <c r="E99">
+        <v>-0.0233907662998795</v>
+      </c>
+      <c r="F99">
+        <v>-0.0005899489465564984</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.002660914856261451</v>
+        <v>0.1243988440906576</v>
       </c>
       <c r="C100">
-        <v>-0.1343201601038033</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.05291678181062655</v>
+      </c>
+      <c r="D100">
+        <v>-0.3501265026239185</v>
+      </c>
+      <c r="E100">
+        <v>0.8878088114025929</v>
+      </c>
+      <c r="F100">
+        <v>-0.1319620892527864</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01568494980162406</v>
+        <v>0.02646644880954076</v>
       </c>
       <c r="C101">
-        <v>-0.02760758689585679</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.008198230387192485</v>
+      </c>
+      <c r="D101">
+        <v>-0.03270508591085487</v>
+      </c>
+      <c r="E101">
+        <v>-0.01015219650376442</v>
+      </c>
+      <c r="F101">
+        <v>-0.01240310171592371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
